--- a/biology/Médecine/Jean_Verny/Jean_Verny.xlsx
+++ b/biology/Médecine/Jean_Verny/Jean_Verny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean François Verny, né à Montpellier vers 1657 et mort dans la même ville en 1741, est un médecin français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père est receveur des tailles aux diocèses de Revel et Castelnaudary et bourgeois de Montpellier. Jean Verny est reçu docteur à Montpellier, le 7 sept 1688. Il reçut une grande réputation dans sa profession.
 Lors de la peste de Marseille, en 1720, la dernière que connut la France, le Régent l’y envoie, avec François Chicoyneau et Antoine Deidier. Un monument de Marseille commémore leur souvenir.
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -572,7 +588,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Dulieu, La médecine à Montpellier du XIIe au XXe siècle, 1990
 Histoire de l'Academie royale des sciences, 1735
